--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1970.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1970.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.010*"import" + 0.010*"export" + 0.010*"foreign" + 0.009*"bank" + 0.008*"may" + 0.008*"exchange" + 0.007*"country" + 0.007*"account" + 0.005*"currency" + 0.005*"payment"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"may" + 0.002*"exchange" + 0.002*"export" + 0.002*"foreign" + 0.002*"bank" + 0.002*"per" + 0.001*"country" + 0.001*"account" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.018*"import" + 0.014*"foreign" + 0.014*"bank" + 0.013*"exchange" + 0.012*"may" + 0.011*"export" + 0.010*"account" + 0.009*"country" + 0.009*"per" + 0.008*"currency"</t>
-  </si>
-  <si>
-    <t>0.004*"import" + 0.004*"exchange" + 0.004*"export" + 0.004*"account" + 0.004*"foreign" + 0.003*"bank" + 0.003*"may" + 0.003*"per" + 0.003*"country" + 0.002*"th"</t>
-  </si>
-  <si>
-    <t>0.009*"may" + 0.008*"export" + 0.008*"import" + 0.007*"bank" + 0.006*"exchange" + 0.006*"foreign" + 0.006*"account" + 0.005*"country" + 0.004*"currency" + 0.004*"license"</t>
+    <t>0.035*"export" + 0.018*"proceeds" + 0.017*"redistribution" + 0.015*"foreign" + 0.014*"must" + 0.013*"may" + 0.013*"trade" + 0.013*"take" + 0.012*"republic" + 0.012*"traveler"</t>
+  </si>
+  <si>
+    <t>0.081*"import" + 0.040*"per" + 0.028*"cent" + 0.021*"license" + 0.021*"export" + 0.018*"good" + 0.017*"fund" + 0.015*"monetary" + 0.012*"international" + 0.012*"u"</t>
+  </si>
+  <si>
+    <t>0.048*"bank" + 0.032*"exchange" + 0.031*"account" + 0.031*"may" + 0.028*"currency" + 0.024*"foreign" + 0.023*"area" + 0.020*"country" + 0.018*"payment" + 0.018*"sterling"</t>
+  </si>
+  <si>
+    <t>0.023*"abroad" + 0.022*"foreign" + 0.018*"investment" + 0.014*"travel" + 0.013*"person" + 0.012*"capital" + 0.012*"prior" + 0.011*"approval" + 0.011*"exchange" + 0.011*"require"</t>
+  </si>
+  <si>
+    <t>0.023*"ing" + 0.019*"th" + 0.015*"ion" + 0.015*"ts" + 0.011*"t" + 0.011*"au" + 0.010*"ly" + 0.010*"ted" + 0.009*"may" + 0.008*"y"</t>
   </si>
 </sst>
 </file>
